--- a/bug report.xlsx
+++ b/bug report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D32CB-43D7-4FCE-B09A-B6E9CE574134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DFABE-29C2-41C2-B093-90D2B4AFE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,70 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="5">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="5">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Defect Report</t>
   </si>
@@ -67,6 +129,110 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>when sign up with first name abd sign up not successful and error message appear</t>
+  </si>
+  <si>
+    <t>the email should be registered successfully and redirects to todo page</t>
+  </si>
+  <si>
+    <t>email not registered and this error message appear"First Name is required, and it should be more than 3 characters"</t>
+  </si>
+  <si>
+    <t>chrome Version 129.0.6668.58</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>user can not be able to signup when first name equal 3 characters</t>
+  </si>
+  <si>
+    <t>v.1.0</t>
+  </si>
+  <si>
+    <t>the loader in login page found in incoorect place</t>
+  </si>
+  <si>
+    <t>when user login with his email found that the loader icon in incorrect place</t>
+  </si>
+  <si>
+    <t>the loader should be in right place</t>
+  </si>
+  <si>
+    <t>the loader in incorrect place</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>1-fill correct email format 
+2-fill correct password
+3-click on login button
+4-check the loader</t>
+  </si>
+  <si>
+    <t>the user name in greeting appear as a "ab" not as a user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is error because name appear ab not return to us as a user </t>
+  </si>
+  <si>
+    <t>1-login with valid email ana password
+2-go to data base 
+3-change username to "ab"</t>
+  </si>
+  <si>
+    <t>the user name in databas e should appear as a user</t>
+  </si>
+  <si>
+    <t>the user name appear in greeting as a "ab"</t>
+  </si>
+  <si>
+    <t>when add 5 tasks in todo page this message is appear "No Available Todos" and pagination not appear</t>
+  </si>
+  <si>
+    <t>when user add 5 tasks there is ni pagination appear</t>
+  </si>
+  <si>
+    <t>1-fill correct email format
+2-fill correct password
+3-click on login button
+4-create 5 tasks
+5-check the pagination</t>
+  </si>
+  <si>
+    <t>pagination should appear</t>
+  </si>
+  <si>
+    <t>pagination not appear and this message appear"No Available Todos"</t>
+  </si>
+  <si>
+    <t>when user use site in iphone the shape not arranged</t>
+  </si>
+  <si>
+    <t>user show site with no arrangement when open in iphone</t>
+  </si>
+  <si>
+    <t>1-open site in iphone by url :http://localhost:3000/</t>
+  </si>
+  <si>
+    <t>the site should open without any problem in function or shape</t>
+  </si>
+  <si>
+    <t>the site open in iphone with problem on its shape</t>
+  </si>
+  <si>
+    <t>1-fill first name with 3 chararacters : abd
+2-fill correct last name
+3-fill correct email format,and email not registerd in database
+4-fill correct password
+5-fill correct confirm password
+6-click on signup button</t>
   </si>
 </sst>
 </file>
@@ -76,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +278,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -200,14 +372,10 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -218,9 +386,13 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +408,90 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,437 +757,804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="77" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
     <col min="14" max="14" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="43.85546875" customWidth="1"/>
+    <col min="28" max="28" width="26.5703125" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="33" max="33" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AB1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="3" t="s">
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="U5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="4"/>
+      <c r="AB5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:33" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="3" t="s">
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
+      <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="U6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="4"/>
+      <c r="AB6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="3" t="s">
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
+      <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="U7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="4"/>
+      <c r="AB7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:33" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="3" t="s">
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="U8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="4"/>
+      <c r="AB8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="3" t="s">
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
+      <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="U9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+      <c r="AB9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:33" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="3" t="s">
+      <c r="I10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
+      <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="U10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4"/>
+      <c r="AB10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:33" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="3" t="s">
+      <c r="I11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="U11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="4"/>
+      <c r="AB11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:33" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="3" t="s">
+      <c r="B12" s="5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="3" t="s">
+      <c r="I12" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
+      <c r="O12" s="5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="4"/>
+      <c r="AB12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="3" t="s">
+      <c r="B13" s="6">
+        <v>45417</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="3" t="s">
+      <c r="I13" s="6">
+        <v>45449</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="6">
         <v>44687</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="6"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="U13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="6">
+        <v>45417</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="4"/>
+      <c r="AB13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>45417</v>
+      </c>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="6"/>
+      <c r="O14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="U14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="4"/>
+      <c r="AB14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="3" t="s">
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="6"/>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="U15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="4"/>
+      <c r="AB15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="60">
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB1:AG4"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="U1:Z4"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="H1:M4"/>
+    <mergeCell ref="N1:S4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="O13:S13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="O14:S14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="O15:S15"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="H1:M4"/>
-    <mergeCell ref="N1:S4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="O5:S5"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>